--- a/回测记录/V3/振幅/☆统计-持股-振幅>=5%阳线收盘价低于5日线.xlsx
+++ b/回测记录/V3/振幅/☆统计-持股-振幅>=5%阳线收盘价低于5日线.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/ThinkingInTrade/文件/回测/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/StockParser/回测记录/V3/振幅/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -631,6 +631,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -910,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M33" sqref="A33:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,43 +2238,43 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="4">
-        <v>43102</v>
-      </c>
-      <c r="C33" s="4">
-        <v>43404</v>
-      </c>
-      <c r="D33" s="5">
-        <v>201</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33" s="17">
+        <v>43102</v>
+      </c>
+      <c r="C33" s="17">
+        <v>43404</v>
+      </c>
+      <c r="D33" s="18">
+        <v>201</v>
+      </c>
+      <c r="E33" s="18">
         <v>19552</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="18">
         <v>97</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="18">
         <v>9167</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="18">
         <v>10385</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="19">
         <v>0.46884999999999999</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="19">
         <v>4.9349999999999998E-2</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="19">
         <v>-3.2870000000000003E-2</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="19">
         <v>3.6600000000000001E-3</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="19">
         <v>5.6800000000000002E-3</v>
       </c>
       <c r="N33" t="s">
